--- a/me-docs/25.Hien-thi-bai-viet-trong-category-ngoai-trang-chu.xlsx
+++ b/me-docs/25.Hien-thi-bai-viet-trong-category-ngoai-trang-chu.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E115B0A5-32E8-4336-B8BF-30CD29802F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1118B42D-B7D9-4141-8273-6917ADA6678F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="get" sheetId="1" r:id="rId1"/>
+    <sheet name="show list" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,12 +26,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>app\Models\CategoryModel.php</t>
   </si>
   <si>
     <t>app\Http\Controllers\HomeController.php</t>
+  </si>
+  <si>
+    <t>resources\views\news\pages\home\child-index\category_grid.blade.php</t>
+  </si>
+  <si>
+    <t>resources\views\news\pages\home\child-index\category_list.blade.php</t>
+  </si>
+  <si>
+    <t>resources\views\news\block\featured.blade.php</t>
+  </si>
+  <si>
+    <t>resources\views\news\partials\article\content.blade.php</t>
+  </si>
+  <si>
+    <t>Check browser</t>
   </si>
 </sst>
 </file>
@@ -255,6 +271,363 @@
         <a:xfrm>
           <a:off x="609600" y="12954000"/>
           <a:ext cx="10285714" cy="4400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>37028</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>151690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A196D003-B998-41D9-BC41-DB8AC88E729C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="8571428" cy="5676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>236647</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>190190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D613DDE-72FD-4A2D-9DC0-927ECAB1E930}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6477000"/>
+          <a:ext cx="11819047" cy="2476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>341562</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>123571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69393C4-6340-49C7-BCA4-301A45825817}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9334500"/>
+          <a:ext cx="10704762" cy="2028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>446324</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>28143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{994D283F-E182-4C66-B2EE-5C1C0A2D4A4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="17526000"/>
+          <a:ext cx="10809524" cy="3457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>117525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A0D7AE4-B8AB-4A2E-821F-476A141295C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="21336000"/>
+          <a:ext cx="10820400" cy="2403525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>570209</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>142690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E4DE43-EC72-4D61-BE12-03FB5C1CCFE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6286500"/>
+          <a:ext cx="10323809" cy="1476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>532038</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>18500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{707AEE66-5C46-4A39-B8C4-90BEE53DBB9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13525500"/>
+          <a:ext cx="10895238" cy="4400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>127938</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{723029B5-AA74-4143-8537-18F5B69F0900}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609601" y="24955500"/>
+          <a:ext cx="10877550" cy="6033438"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -531,7 +904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
@@ -551,4 +924,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF87B12-AEDB-4BB7-90E9-F9B9F1603990}">
+  <dimension ref="A2:A131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/25.Hien-thi-bai-viet-trong-category-ngoai-trang-chu.xlsx
+++ b/me-docs/25.Hien-thi-bai-viet-trong-category-ngoai-trang-chu.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1118B42D-B7D9-4141-8273-6917ADA6678F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C343790-C0F4-46A6-A4A1-4DE20BFCDE43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="get" sheetId="1" r:id="rId1"/>
     <sheet name="show list" sheetId="2" r:id="rId2"/>
+    <sheet name="show grid" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>app\Models\CategoryModel.php</t>
   </si>
@@ -628,6 +629,99 @@
         <a:xfrm>
           <a:off x="609601" y="24955500"/>
           <a:ext cx="10877550" cy="6033438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>179581</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6A149D0-6CA5-43EB-9443-C7F59527D8B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="11152381" cy="4428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>206683</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B351F0AC-84C3-40D7-A4A5-18332E911CC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5143500"/>
+          <a:ext cx="11179483" cy="6219825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -930,7 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF87B12-AEDB-4BB7-90E9-F9B9F1603990}">
   <dimension ref="A2:A131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+    <sheetView topLeftCell="A139" workbookViewId="0">
       <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
@@ -975,4 +1069,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BEEDB2-102F-4AD9-AA9D-F931E40B4040}">
+  <dimension ref="A2:A27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>